--- a/biology/Médecine/Pierre-Augustin_de_Bourgues/Pierre-Augustin_de_Bourgues.xlsx
+++ b/biology/Médecine/Pierre-Augustin_de_Bourgues/Pierre-Augustin_de_Bourgues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre-Augustin de Bourgues (1779-1849) est un médecin militaire et homme politique français. Il fut deux fois maire de Brest par intérim.
 </t>
@@ -511,18 +523,90 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre-Augustin de Bourgues, fils de Joseph Aimé de Bourgues, juge de paix à Nantes, et de Marie Anne Dargent, est né le 29 décembre 1779 à Nantes[1] dans une famille d'origine espagnole de magistrats et de médecins[2], ayant donné un maire de Nantes (Jacques de Bourgues). 
-Il est mort du choléra le 18 novembre 1849 à Brest[1].
-Carrière médicale
-Il a été médecin maritime sur la frégate La Gloire à partir du 24 octobre 1803. Il a été fait prisonnier le 26 septembre 1806 et est resté 3 ans en captivité[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre-Augustin de Bourgues, fils de Joseph Aimé de Bourgues, juge de paix à Nantes, et de Marie Anne Dargent, est né le 29 décembre 1779 à Nantes dans une famille d'origine espagnole de magistrats et de médecins, ayant donné un maire de Nantes (Jacques de Bourgues). 
+Il est mort du choléra le 18 novembre 1849 à Brest.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pierre-Augustin_de_Bourgues</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre-Augustin_de_Bourgues</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière médicale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été médecin maritime sur la frégate La Gloire à partir du 24 octobre 1803. Il a été fait prisonnier le 26 septembre 1806 et est resté 3 ans en captivité.
 Il devient médecin civil à Recouvrance en 1814, administrateur de l'hospice civil de Brest. Il a combattu en particulier des épidémies de choléra en 1832 et en 1849, durant laquelle il est mort du choléra.
-Carrière politique
-Il fut maire adjoint de Recouvrance et maire par intérim de Brest :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pierre-Augustin_de_Bourgues</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre-Augustin_de_Bourgues</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fut maire adjoint de Recouvrance et maire par intérim de Brest :
 du ?/07/1830 au 10/09/1830, lors des Trois Glorieuses, alors le maire, le baron Jean-Hilaire Barchou de Penhoën, et son premier adjoint avaient fui.
 du 15/05/1839 au 02/07/1839 en remplacement de Charles Fleury (pharmacien de marine, maire décédé)
-Dans les années 1830, il a plusieurs fois remplacé le préfet en dirigeant le conseil d’arrondissement[2].
+Dans les années 1830, il a plusieurs fois remplacé le préfet en dirigeant le conseil d’arrondissement.
 </t>
         </is>
       </c>
